--- a/target/test-classes/NewFile.xlsx
+++ b/target/test-classes/NewFile.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Java" sheetId="1" r:id="rId1"/>
+    <sheet name="POST" sheetId="1" r:id="rId1"/>
+    <sheet name="PUT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>title</t>
   </si>
@@ -88,6 +89,33 @@
   </si>
   <si>
     <t xml:space="preserve">Percussion Instruments. </t>
+  </si>
+  <si>
+    <t>updatedamount</t>
+  </si>
+  <si>
+    <t>updateddescription</t>
+  </si>
+  <si>
+    <t>updatedtitle</t>
+  </si>
+  <si>
+    <t>Fender Stratocaster Electric Guitar1</t>
+  </si>
+  <si>
+    <t>Drums Set1</t>
+  </si>
+  <si>
+    <t>Piano1</t>
+  </si>
+  <si>
+    <t>Acoustic guitar1</t>
+  </si>
+  <si>
+    <t>Trumpet1</t>
+  </si>
+  <si>
+    <t>Harmonica1</t>
   </si>
 </sst>
 </file>
@@ -407,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>41</v>
+        <v>2101212</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -599,6 +627,162 @@
       </c>
       <c r="G8" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>7821</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>7821</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>7821</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>7821</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>7821</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>7821</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>7821</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/NewFile.xlsx
+++ b/target/test-classes/NewFile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>title</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Harmonica1</t>
+  </si>
+  <si>
+    <t>Ruppies</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,7 @@
         <v>7821</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>

--- a/target/test-classes/NewFile.xlsx
+++ b/target/test-classes/NewFile.xlsx
@@ -118,7 +118,7 @@
     <t>Harmonica1</t>
   </si>
   <si>
-    <t>Ruppies</t>
+    <t>Ruppie</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
         <v>7821</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>7821</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
